--- a/SchedulingData/dynamic15/pso/scheduling2_14.xlsx
+++ b/SchedulingData/dynamic15/pso/scheduling2_14.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E48"/>
+  <dimension ref="A1:E47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,477 +462,477 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pond11</t>
+          <t>pond38</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>217.06</v>
+        <v>230.14</v>
       </c>
       <c r="D2" t="n">
-        <v>268.02</v>
+        <v>285.44</v>
       </c>
       <c r="E2" t="n">
-        <v>12.868</v>
+        <v>11.656</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pond17</t>
+          <t>pond24</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>211.8</v>
+        <v>223.12</v>
       </c>
       <c r="D3" t="n">
-        <v>244.7</v>
+        <v>275</v>
       </c>
       <c r="E3" t="n">
-        <v>13.72</v>
+        <v>13.14</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pond13</t>
+          <t>pond55</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>275.72</v>
+        <v>285.44</v>
       </c>
       <c r="D4" t="n">
-        <v>340.82</v>
+        <v>333.1</v>
       </c>
       <c r="E4" t="n">
-        <v>12.048</v>
+        <v>8.52</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pond27</t>
+          <t>pond40</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>221.76</v>
+        <v>333.1</v>
       </c>
       <c r="D5" t="n">
-        <v>256.66</v>
+        <v>381.12</v>
       </c>
       <c r="E5" t="n">
-        <v>10.544</v>
+        <v>5.348</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pond20</t>
+          <t>pond49</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>268.02</v>
+        <v>237.42</v>
       </c>
       <c r="D6" t="n">
-        <v>314.36</v>
+        <v>301.34</v>
       </c>
       <c r="E6" t="n">
-        <v>9.364000000000001</v>
+        <v>12.476</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pond53</t>
+          <t>pond14</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>208.98</v>
+        <v>261.18</v>
       </c>
       <c r="D7" t="n">
-        <v>263.78</v>
+        <v>335.4</v>
       </c>
       <c r="E7" t="n">
-        <v>15.592</v>
+        <v>10.08</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pond4</t>
+          <t>pond59</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>256.66</v>
+        <v>207.32</v>
       </c>
       <c r="D8" t="n">
-        <v>312.72</v>
+        <v>277.98</v>
       </c>
       <c r="E8" t="n">
-        <v>7.068</v>
+        <v>12.812</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pond51</t>
+          <t>pond34</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>312.72</v>
+        <v>275</v>
       </c>
       <c r="D9" t="n">
-        <v>389.9</v>
+        <v>351.88</v>
       </c>
       <c r="E9" t="n">
-        <v>2.98</v>
+        <v>9.532</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pond60</t>
+          <t>pond44</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>389.9</v>
+        <v>277.98</v>
       </c>
       <c r="D10" t="n">
-        <v>424.52</v>
+        <v>333.16</v>
       </c>
       <c r="E10" t="n">
-        <v>0.648</v>
+        <v>8.923999999999999</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>pond9</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>424.52</v>
+        <v>351.88</v>
       </c>
       <c r="D11" t="n">
-        <v>519.8200000000001</v>
+        <v>424.18</v>
       </c>
       <c r="E11" t="n">
-        <v>30</v>
+        <v>4.432</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pond30</t>
+          <t>pond13</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>519.8200000000001</v>
+        <v>335.4</v>
       </c>
       <c r="D12" t="n">
-        <v>559.0599999999999</v>
+        <v>380.5</v>
       </c>
       <c r="E12" t="n">
-        <v>27.756</v>
+        <v>6.7</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pond25</t>
+          <t>pond57</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>244.7</v>
+        <v>301.34</v>
       </c>
       <c r="D13" t="n">
-        <v>282.78</v>
+        <v>340.54</v>
       </c>
       <c r="E13" t="n">
-        <v>10.552</v>
+        <v>9.196</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pond49</t>
+          <t>pond30</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>263.78</v>
+        <v>380.5</v>
       </c>
       <c r="D14" t="n">
-        <v>327.7</v>
+        <v>419.24</v>
       </c>
       <c r="E14" t="n">
-        <v>11.8</v>
+        <v>4.456</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pond57</t>
+          <t>pond51</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>327.7</v>
+        <v>419.24</v>
       </c>
       <c r="D15" t="n">
-        <v>366.9</v>
+        <v>491.22</v>
       </c>
       <c r="E15" t="n">
-        <v>8.52</v>
+        <v>0.368</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pond12</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>340.82</v>
+        <v>491.22</v>
       </c>
       <c r="D16" t="n">
-        <v>381.76</v>
+        <v>586.98</v>
       </c>
       <c r="E16" t="n">
-        <v>9.084</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pond38</t>
+          <t>pond48</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>559.0599999999999</v>
+        <v>333.16</v>
       </c>
       <c r="D17" t="n">
-        <v>604.46</v>
+        <v>411.36</v>
       </c>
       <c r="E17" t="n">
-        <v>23.856</v>
+        <v>3.704</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pond39</t>
+          <t>pond16</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>381.76</v>
+        <v>424.18</v>
       </c>
       <c r="D18" t="n">
-        <v>435.66</v>
+        <v>495.68</v>
       </c>
       <c r="E18" t="n">
-        <v>6.804</v>
+        <v>1.352</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pond2</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>212.72</v>
+        <v>495.68</v>
       </c>
       <c r="D19" t="n">
-        <v>263.88</v>
+        <v>564.98</v>
       </c>
       <c r="E19" t="n">
-        <v>12.812</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pond5</t>
+          <t>pond28</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>314.36</v>
+        <v>201.48</v>
       </c>
       <c r="D20" t="n">
-        <v>372.78</v>
+        <v>250.44</v>
       </c>
       <c r="E20" t="n">
-        <v>5.152</v>
+        <v>11.676</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pond58</t>
+          <t>pond19</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>282.78</v>
+        <v>250.44</v>
       </c>
       <c r="D21" t="n">
-        <v>351.08</v>
+        <v>300.22</v>
       </c>
       <c r="E21" t="n">
-        <v>6.352</v>
+        <v>7.828</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pond33</t>
+          <t>pond41</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>351.08</v>
+        <v>340.54</v>
       </c>
       <c r="D22" t="n">
-        <v>402.02</v>
+        <v>388.34</v>
       </c>
       <c r="E22" t="n">
-        <v>3.388</v>
+        <v>5.556</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pond61</t>
+          <t>pond31</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>435.66</v>
+        <v>381.12</v>
       </c>
       <c r="D23" t="n">
-        <v>498.34</v>
+        <v>426.82</v>
       </c>
       <c r="E23" t="n">
-        <v>3.156</v>
+        <v>1.908</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pond54</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>498.34</v>
+        <v>426.82</v>
       </c>
       <c r="D24" t="n">
-        <v>539.4</v>
+        <v>494.9</v>
       </c>
       <c r="E24" t="n">
-        <v>0.18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>pond3</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>539.4</v>
+        <v>494.9</v>
       </c>
       <c r="D25" t="n">
-        <v>620.84</v>
+        <v>568.12</v>
       </c>
       <c r="E25" t="n">
-        <v>30</v>
+        <v>26.828</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond54</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>402.02</v>
+        <v>586.98</v>
       </c>
       <c r="D26" t="n">
-        <v>496.54</v>
+        <v>638.54</v>
       </c>
       <c r="E26" t="n">
-        <v>30</v>
+        <v>27.024</v>
       </c>
     </row>
     <row r="27">
@@ -941,55 +941,55 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pond18</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>496.54</v>
+        <v>411.36</v>
       </c>
       <c r="D27" t="n">
-        <v>575.58</v>
+        <v>470.95</v>
       </c>
       <c r="E27" t="n">
-        <v>25.736</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pond40</t>
+          <t>pond23</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>263.88</v>
+        <v>470.95</v>
       </c>
       <c r="D28" t="n">
-        <v>346.4</v>
+        <v>526.33</v>
       </c>
       <c r="E28" t="n">
-        <v>9.640000000000001</v>
+        <v>26.152</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>pond8</t>
+          <t>pond11</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>372.78</v>
+        <v>526.33</v>
       </c>
       <c r="D29" t="n">
-        <v>425.68</v>
+        <v>582.09</v>
       </c>
       <c r="E29" t="n">
-        <v>1.972</v>
+        <v>23.176</v>
       </c>
     </row>
     <row r="30">
@@ -998,36 +998,36 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond15</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>425.68</v>
+        <v>564.98</v>
       </c>
       <c r="D30" t="n">
-        <v>498.74</v>
+        <v>605.2</v>
       </c>
       <c r="E30" t="n">
-        <v>30</v>
+        <v>27.668</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>pond24</t>
+          <t>pond42</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>575.58</v>
+        <v>388.34</v>
       </c>
       <c r="D31" t="n">
-        <v>642.0599999999999</v>
+        <v>435.48</v>
       </c>
       <c r="E31" t="n">
-        <v>22.668</v>
+        <v>1.972</v>
       </c>
     </row>
     <row r="32">
@@ -1036,245 +1036,245 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>pond46</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>620.84</v>
+        <v>435.48</v>
       </c>
       <c r="D32" t="n">
-        <v>677.24</v>
+        <v>527.9400000000001</v>
       </c>
       <c r="E32" t="n">
-        <v>26.04</v>
+        <v>30</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>pond41</t>
+          <t>pond5</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>366.9</v>
+        <v>300.22</v>
       </c>
       <c r="D33" t="n">
-        <v>414.7</v>
+        <v>363.54</v>
       </c>
       <c r="E33" t="n">
-        <v>4.88</v>
+        <v>3.616</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>pond50</t>
+          <t>pond62</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>414.7</v>
+        <v>638.54</v>
       </c>
       <c r="D34" t="n">
-        <v>451.44</v>
+        <v>680.22</v>
       </c>
       <c r="E34" t="n">
-        <v>2.336</v>
+        <v>23.496</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>pond62</t>
+          <t>pond50</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>677.24</v>
+        <v>582.09</v>
       </c>
       <c r="D35" t="n">
-        <v>723.92</v>
+        <v>638.83</v>
       </c>
       <c r="E35" t="n">
-        <v>22.512</v>
+        <v>20.632</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>pond3</t>
+          <t>pond10</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>346.4</v>
+        <v>363.54</v>
       </c>
       <c r="D36" t="n">
-        <v>424.02</v>
+        <v>416.76</v>
       </c>
       <c r="E36" t="n">
-        <v>6.468</v>
+        <v>0.404</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>pond6</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>498.74</v>
+        <v>416.76</v>
       </c>
       <c r="D37" t="n">
-        <v>560.9</v>
+        <v>517.35</v>
       </c>
       <c r="E37" t="n">
-        <v>26.464</v>
+        <v>30</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>pond19</t>
+          <t>pond29</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>604.46</v>
+        <v>638.83</v>
       </c>
       <c r="D38" t="n">
-        <v>669.04</v>
+        <v>698.09</v>
       </c>
       <c r="E38" t="n">
-        <v>20.008</v>
+        <v>17.816</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>pond47</t>
+          <t>pond53</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>424.02</v>
+        <v>517.35</v>
       </c>
       <c r="D39" t="n">
-        <v>497.22</v>
+        <v>577.65</v>
       </c>
       <c r="E39" t="n">
-        <v>3.748</v>
+        <v>27.14</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>pond63</t>
+          <t>pond37</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>560.9</v>
+        <v>577.65</v>
       </c>
       <c r="D40" t="n">
-        <v>650.8</v>
+        <v>623.77</v>
       </c>
       <c r="E40" t="n">
-        <v>21.604</v>
+        <v>23.668</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>pond59</t>
+          <t>pond1</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>669.04</v>
+        <v>680.22</v>
       </c>
       <c r="D41" t="n">
-        <v>735.2</v>
+        <v>762.72</v>
       </c>
       <c r="E41" t="n">
-        <v>16.032</v>
+        <v>21.336</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>pond1</t>
+          <t>pond60</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>497.22</v>
+        <v>568.12</v>
       </c>
       <c r="D42" t="n">
-        <v>574.62</v>
+        <v>632.74</v>
       </c>
       <c r="E42" t="n">
-        <v>1.588</v>
+        <v>24.496</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond7</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>574.62</v>
+        <v>527.9400000000001</v>
       </c>
       <c r="D43" t="n">
-        <v>682.74</v>
+        <v>597.96</v>
       </c>
       <c r="E43" t="n">
-        <v>30</v>
+        <v>25.688</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>pond15</t>
+          <t>pond27</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>650.8</v>
+        <v>632.74</v>
       </c>
       <c r="D44" t="n">
-        <v>705.52</v>
+        <v>682.64</v>
       </c>
       <c r="E44" t="n">
-        <v>19.272</v>
+        <v>22.136</v>
       </c>
     </row>
     <row r="45">
@@ -1283,74 +1283,55 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>pond17</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>451.44</v>
+        <v>682.64</v>
       </c>
       <c r="D45" t="n">
-        <v>548.17</v>
+        <v>720.4400000000001</v>
       </c>
       <c r="E45" t="n">
-        <v>30</v>
+        <v>19.976</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>pond56</t>
+          <t>pond8</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>548.17</v>
+        <v>623.77</v>
       </c>
       <c r="D46" t="n">
-        <v>596.5700000000001</v>
+        <v>691.67</v>
       </c>
       <c r="E46" t="n">
-        <v>26.36</v>
+        <v>20.488</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>pond44</t>
+          <t>pond33</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>642.0599999999999</v>
+        <v>605.2</v>
       </c>
       <c r="D47" t="n">
-        <v>716.9400000000001</v>
+        <v>680.64</v>
       </c>
       <c r="E47" t="n">
-        <v>18.78</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="n">
-        <v>5</v>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>pond37</t>
-        </is>
-      </c>
-      <c r="C48" t="n">
-        <v>596.5700000000001</v>
-      </c>
-      <c r="D48" t="n">
-        <v>657.39</v>
-      </c>
-      <c r="E48" t="n">
-        <v>22.888</v>
+        <v>24.704</v>
       </c>
     </row>
   </sheetData>
